--- a/result/transmission delay.xlsx
+++ b/result/transmission delay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22552" windowHeight="11205"/>
+    <workbookView windowWidth="12232" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Network Scale</t>
   </si>
@@ -41,22 +41,13 @@
     <t>sfl</t>
   </si>
   <si>
-    <t>6796757513.278301</t>
+    <t>type</t>
   </si>
   <si>
-    <t>7065828283.769590</t>
+    <t>t</t>
   </si>
   <si>
-    <t>5352880378.855524</t>
-  </si>
-  <si>
-    <t>13009114424.581882</t>
-  </si>
-  <si>
-    <t>13801996968.892799</t>
-  </si>
-  <si>
-    <t>10223856512.474632</t>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -674,9 +665,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,19 +1192,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.3362831858407" customWidth="1"/>
     <col min="2" max="4" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,33 +1217,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>1.849018</v>
+      </c>
+      <c r="C2">
+        <v>3.904048</v>
+      </c>
+      <c r="D2">
+        <v>42.496362</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>717.918418</v>
+      </c>
+      <c r="C3">
+        <v>1134.988833</v>
+      </c>
+      <c r="D3">
+        <v>34857.399733</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
